--- a/Documentation/Bill of Materials.xlsx
+++ b/Documentation/Bill of Materials.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chad\Documents\GitHub\DigitalDash\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="70" windowWidth="10500" windowHeight="2340"/>
+    <workbookView xWindow="14640" yWindow="75" windowWidth="10500" windowHeight="2340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name of Component</t>
   </si>
@@ -37,12 +42,24 @@
   </si>
   <si>
     <t>MCP2551 transceivers</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Arduino-A000062-Due/dp/B00A6C3JN2/ref=sr_1_1?ie=UTF8&amp;qid=1422406211&amp;sr=8-1&amp;keywords=arduino+due&amp;pebp=1422406212053&amp;peasin=B00A6C3JN2</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?KeyWords=MCP2551-I%2FP-ND%20&amp;WT.z_header=search_go</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,13 +111,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,6 +128,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -158,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,7 +214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,19 +423,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,31 +450,125 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="4">
+        <v>47.5</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D2" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="E2" s="4">
+        <f>(B2*C2)+D2</f>
+        <v>56.49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="4">
+        <v>1.22</v>
+      </c>
       <c r="C3">
         <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5.23</v>
+      </c>
+      <c r="E3" s="4">
+        <f>(B3*C3)+D3</f>
+        <v>7.67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <f>SUM(B4:D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E11" si="0">SUM(B5:D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E3" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -459,7 +578,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -471,7 +590,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Bill of Materials.xlsx
+++ b/Documentation/Bill of Materials.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chad\Documents\GitHub\DigitalDash\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="75" windowWidth="10500" windowHeight="2340"/>
+    <workbookView xWindow="14640" yWindow="80" windowWidth="10500" windowHeight="2340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name of Component</t>
   </si>
@@ -51,6 +46,12 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-search/en?KeyWords=MCP2551-I%2FP-ND%20&amp;WT.z_header=search_go</t>
+  </si>
+  <si>
+    <t>Grand Total:</t>
+  </si>
+  <si>
+    <t>Project Limit:</t>
   </si>
 </sst>
 </file>
@@ -60,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +91,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -99,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -107,18 +116,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,7 +323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,7 +358,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,142 +567,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A3:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
+        <f>SUM(E9:E53)</f>
+        <v>64.16</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="6">
+        <v>500</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F8" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B9" s="3">
         <v>47.5</v>
       </c>
-      <c r="C2">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D9" s="3">
         <v>8.99</v>
       </c>
-      <c r="E2" s="4">
-        <f>(B2*C2)+D2</f>
+      <c r="E9" s="3">
+        <f>(B9*C9)+D9</f>
         <v>56.49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B10" s="3">
         <v>1.22</v>
       </c>
-      <c r="C3">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D10" s="3">
         <v>5.23</v>
       </c>
-      <c r="E3" s="4">
-        <f>(B3*C3)+D3</f>
+      <c r="E10" s="3">
+        <f>(B10*C10)+D10</f>
         <v>7.67</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
-        <f>SUM(B4:D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <f t="shared" ref="E5:E11" si="0">SUM(B5:D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <f>SUM(B11:D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <f t="shared" ref="E12:E18" si="0">SUM(B12:D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="E10" s="4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="E11" s="4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="3"/>
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -566,9 +732,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E3" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -578,7 +741,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -590,7 +753,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Bill of Materials.xlsx
+++ b/Documentation/Bill of Materials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="80" windowWidth="10500" windowHeight="2340"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="4560" windowHeight="2340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Name of Component</t>
   </si>
@@ -48,10 +48,40 @@
     <t>http://www.digikey.com/product-search/en?KeyWords=MCP2551-I%2FP-ND%20&amp;WT.z_header=search_go</t>
   </si>
   <si>
-    <t>Grand Total:</t>
-  </si>
-  <si>
-    <t>Project Limit:</t>
+    <t>Protoype Board</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/4D-Systems/SK-35DT-AR/?qs=sGAEpiMZZMt7dcPGmvnkBvby7derVASQ3bMi21FO2OCxIIFGPhv3qw%3d%3d</t>
+  </si>
+  <si>
+    <t>Supplier Part Number</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>SK-35DT-AR</t>
+  </si>
+  <si>
+    <t>971-SK-35DT-AR</t>
+  </si>
+  <si>
+    <t>uLCD-35DT-AR</t>
+  </si>
+  <si>
+    <t>A000062</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>MCP2551-I/P</t>
+  </si>
+  <si>
+    <t>MCP2551-I/P-ND</t>
+  </si>
+  <si>
+    <t>Custom Board</t>
   </si>
 </sst>
 </file>
@@ -61,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +122,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -108,111 +174,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -227,7 +194,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -240,31 +209,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -567,182 +541,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I18"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G4" s="8" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="4">
-        <f>SUM(E9:E53)</f>
-        <v>64.16</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G5" s="9" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8">
+        <v>47.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>8.99</v>
+      </c>
+      <c r="G6" s="8">
+        <f>(D6*E6)+F6</f>
+        <v>56.49</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.22</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5.23</v>
+      </c>
+      <c r="G7" s="8">
+        <f>(D7*E7)+F7</f>
+        <v>7.67</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8">
+        <v>94.16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>7.99</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(D8:F8)</f>
+        <v>103.14999999999999</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6">
-        <v>500</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3">
-        <v>47.5</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>8.99</v>
-      </c>
-      <c r="E9" s="3">
-        <f>(B9*C9)+D9</f>
-        <v>56.49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.22</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5.23</v>
-      </c>
-      <c r="E10" s="3">
-        <f>(B10*C10)+D10</f>
-        <v>7.67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <f>SUM(B11:D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <f t="shared" ref="E12:E18" si="0">SUM(B12:D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="3"/>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H8" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink ref="H7" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8">
+        <v>47.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>8.99</v>
+      </c>
+      <c r="G6" s="8">
+        <f>(D6*E6)+F6</f>
+        <v>56.49</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.22</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5.23</v>
+      </c>
+      <c r="G7" s="8">
+        <f>(D7*E7)+F7</f>
+        <v>7.67</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8">
+        <v>94.16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>7.99</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(D8:F8)</f>
+        <v>103.14999999999999</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H8" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink ref="H7" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
